--- a/medicine/Mort/Nécropole_papale_de_la_basilique_Saint-Pierre/Nécropole_papale_de_la_basilique_Saint-Pierre.xlsx
+++ b/medicine/Mort/Nécropole_papale_de_la_basilique_Saint-Pierre/Nécropole_papale_de_la_basilique_Saint-Pierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_papale_de_la_basilique_Saint-Pierre</t>
+          <t>Nécropole_papale_de_la_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole papale de la basilique Saint-Pierre est une immense crypte contenant non seulement des chapelles dédiées à différents saints, mais aussi des tombes de rois, de reines et de papes à partir du Xe siècle. Elle résulte d’une initiative d’Antonio da Sangallo, architecte en chef de la basilique Saint-Pierre, qui décide entre 1538 et 1546 de surélever de 3,2 mètres le pavement de la nef de la basilique pour en augmenter la luminosité. Ce nouveau pavement est alors soutenu par une série de voûtes qui forment des pièces accessibles, les grottes vaticanes, nom que l'on donne aux salles souterraines se trouvant sous la basilique et qui reprennent son plan.
 Sur 265 papes, seulement 149 ont été inhumés dans la basilique Saint-Pierre de Rome pour des raisons diverses (après leur béatification, après la construction d'un magnifique monument funéraire), mais aussi dans diverses églises de Rome. Cependant, la grande majorité d'entre eux est ou a été inhumée dans les grottes vaticanes. Celles-ci ne doivent pas être confondues avec la nécropole du Vatican, qui correspond aux fouilles du cimetière contenant des tombes de la fin du Ier siècle av. J.-C. au IVe siècle. Cette dernière est d'ailleurs située sous la nécropole papale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_papale_de_la_basilique_Saint-Pierre</t>
+          <t>Nécropole_papale_de_la_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>La tombe de saint Pierre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la tradition catholique romaine, saint Pierre est un des apôtres du Christ et est considéré comme le premier évêque de Rome. Pour les catholiques, cela fonde la primauté épiscopale de l'évêque de Rome sur tous les autres évêques du monde, ce qui en fait le premier pape de l'histoire, dont le dernier héritier en date est le pape François, son 265e successeur. Les catholiques considèrent que saint Pierre a été le premier pape dès la mort du Christ en 33 jusqu'à sa mort en martyr en 67 (les dates sont les dates officielles de l'Église catholique).
 La tradition localise la tombe de Pierre sur l'emplacement de la nécropole du Vatican située au nord du Circus Vaticanus, dont elle était séparée par une route secondaire, la via Cornelia. L'empereur Constantin y fait édifier une première basilique occupant le site de la basilique Saint-Pierre actuel et dont l'abside est construite autour de l'emplacement de la tombe à flanc de colline.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_papale_de_la_basilique_Saint-Pierre</t>
+          <t>Nécropole_papale_de_la_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Les tombeaux des papes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de ses funérailles le 8 avril 2005, Jean-Paul II est inhumé dans son tombeau à 14 h 20, à l'emplacement où reposait le corps de Jean XXIII jusqu'à son transfert dans la basilique après sa béatification en 2000. La cérémonie d'inhumation se déroule sans la présence des médias et dure deux heures. Selon le Vatican, la niche a été réaménagée comme une cellule de monastère avec une grande dalle en marbre blanc de Carrare qui recouvre la tombe. À son tour le corps de Jean-Paul II est transféré dans la basilique elle-même en 2011.
 Le dernier pape inhumé dans la crypte est le pape émérite Benoît XVI le 5 janvier 2023, dans l'ancien caveau de  son prédécesseur.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_papale_de_la_basilique_Saint-Pierre</t>
+          <t>Nécropole_papale_de_la_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Liste officielle des 149 souverains pontifes inhumés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Saint Pierre († 67) -  1er pape de 33 à 67
@@ -744,7 +762,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_papale_de_la_basilique_Saint-Pierre</t>
+          <t>Nécropole_papale_de_la_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -762,7 +780,9 @@
           <t>Les grottes du Vatican</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les grottes du Vatican est le nom que l'on donne aux salles souterraines se trouvant sous la basilique Saint-Pierre. Elles s'étendent sous une partie de la nef centrale, à trois mètres sous le sol actuel, en partant de l'autel principal (dit « autel papal ») à environ la moitié de la nef, formant ainsi une véritable église souterraine qui occupe l'espace entre le plancher actuel de la basilique et l'ancienne basilique de Constantin, au IVe siècle. Les grottes vaticanes abritent la tombe de saint Pierre et également celles de la plupart des autres souverains pontifes.
 Les « grottes vaticanes » ont la taille de l'ancienne basilique constantinienne, qui perdura jusqu'au XVIe siècle, c'est pourquoi elles ne courent pas sur toute la longueur de la nef de la basilique actuelle, qui est plus grande que la précédente.
@@ -781,7 +801,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_papale_de_la_basilique_Saint-Pierre</t>
+          <t>Nécropole_papale_de_la_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -799,7 +819,9 @@
           <t>Papes inhumés dans la basilique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les 149 papes, tous ne sont pas enterrés dans les grottes vaticanes. Certains y ont été inhumés et ont ensuite été transférés dans la basilique, d'autres ont directement été inhumés dans la basilique à leur mort.
 Voici la liste chronologique de ces papes qui sont actuellement inhumés dans la basilique Saint-Pierre:
@@ -813,7 +835,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_papale_de_la_basilique_Saint-Pierre</t>
+          <t>Nécropole_papale_de_la_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -831,7 +853,9 @@
           <t>Les autres sépultures</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve également dans les grottes du Vatican ou dans la basilique, des personnalités qui se sont distinguées à travers les âges pour des raisons particulières, morales ou religieuses et qui ont émis le souhait de reposer près du tombeau de Saint-Pierre.
 On peut citer :
